--- a/copilot-python-excel-arima-demo.xlsx
+++ b/copilot-python-excel-arima-demo.xlsx
@@ -1,32 +1,470 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28619"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29221"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12D0CA57-70D6-455F-A0A3-23E95A673902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDD800CE-E006-4E32-9A17-8D3D86190309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{D1DB74EE-DD2A-4C91-AEB8-AFF62E640A90}"/>
   </bookViews>
   <sheets>
     <sheet name="AirPassengers" sheetId="1" r:id="rId1"/>
+    <sheet name="Analysis1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="22">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="6"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="10"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="13"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="27"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="14"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="15"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="16"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="17"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="18"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="19"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="20"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="21"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="22"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="23"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="24"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="28"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="29"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="32"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="35"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="38"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="41"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="22">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2"/>
+    </bk>
+    <bk>
+      <rc t="2" v="3"/>
+    </bk>
+    <bk>
+      <rc t="2" v="4"/>
+    </bk>
+    <bk>
+      <rc t="2" v="5"/>
+    </bk>
+    <bk>
+      <rc t="2" v="6"/>
+    </bk>
+    <bk>
+      <rc t="2" v="7"/>
+    </bk>
+    <bk>
+      <rc t="2" v="8"/>
+    </bk>
+    <bk>
+      <rc t="2" v="9"/>
+    </bk>
+    <bk>
+      <rc t="2" v="10"/>
+    </bk>
+    <bk>
+      <rc t="2" v="11"/>
+    </bk>
+    <bk>
+      <rc t="2" v="12"/>
+    </bk>
+    <bk>
+      <rc t="2" v="13"/>
+    </bk>
+    <bk>
+      <rc t="2" v="14"/>
+    </bk>
+    <bk>
+      <rc t="2" v="15"/>
+    </bk>
+    <bk>
+      <rc t="2" v="16"/>
+    </bk>
+    <bk>
+      <rc t="2" v="17"/>
+    </bk>
+    <bk>
+      <rc t="2" v="18"/>
+    </bk>
+    <bk>
+      <rc t="2" v="19"/>
+    </bk>
+    <bk>
+      <rc t="2" v="20"/>
+    </bk>
+    <bk>
+      <rc t="2" v="21"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
+<file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
+<python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
+  <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
+    <initialization>
+      <code xml:space="preserve">import numpy as np
+import pandas as pd
+import matplotlib.pyplot as plt
+import seaborn as sns
+import statsmodels as sm
+import excel
+import warnings
+warnings.simplefilter('ignore')
+excel.set_xl_scalar_conversion(excel.convert_to_scalar)
+excel.set_xl_array_conversion(excel.convert_to_dataframe)
+</code>
+    </initialization>
+  </environmentDefinition>
+  <pythonScripts>
+    <pythonScript>
+      <code>Table1_df=xl(%P2%, headers=True)</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Visualize the time series of monthly air passengers
+# Convert 'month' to datetime and set as index for time series analysis
+Table1_df['month'] = pd.to_datetime(Table1_df['month'])
+Table1_df.set_index('month', inplace=True)
+# Plot the time series
+graph_font = ['Meiryo','Batang','TH SarabunPSK','SimHei','DejaVu Sans']
+plt.rcParams['font.family'] = graph_font
+plt.figure(figsize=(10,4))
+plt.plot(Table1_df.index, Table1_df['passengers'], color='tab:blue')
+plt.title('Monthly Air Passengers Over Time')
+plt.xlabel('Month')
+plt.ylabel('Number of Passengers')
+plt.tight_layout()
+plt.show()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Decompose the time series into trend, seasonality, and residuals
+# Decompose the time series into trend, seasonality, and residuals
+from statsmodels.tsa.seasonal import seasonal_decompose
+result = seasonal_decompose(Table1_df['passengers'], model='multiplicative', period=12)
+# Plot the decomposition results
+plt.rcParams['font.family'] = graph_font
+fig, axes = plt.subplots(4, 1, figsize=(10,8), sharex=True)
+result.observed.plot(ax=axes[0], color='tab:blue')
+axes[0].set_ylabel('Observed')
+axes[0].set_title('Observed')
+result.trend.plot(ax=axes[1], color='tab:orange')
+axes[1].set_ylabel('Trend')
+axes[1].set_title('Trend')
+result.seasonal.plot(ax=axes[2], color='tab:green')
+axes[2].set_ylabel('Seasonal')
+axes[2].set_title('Seasonal')
+result.resid.plot(ax=axes[3], color='tab:red')
+axes[3].set_ylabel('Residual')
+axes[3].set_title('Residual')
+plt.xlabel('Month')
+plt.tight_layout()
+plt.show()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#ADF stationarity test results for AirPassengers data
+# Augmented Dickey-Fuller test for stationarity
+from statsmodels.tsa.stattools import adfuller
+adf_result = adfuller(Table1_df['passengers'])
+adf_stat = adf_result[0]
+p_value = adf_result[1]
+df_stationarity = pd.DataFrame({'ADF Statistic':[adf_stat],'p-value':[p_value]})
+df_stationarity</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Seasonal differencing applied to AirPassengers data
+# Apply seasonal differencing (lag 12) to remove yearly seasonality
+Table1_df['seasonal_diff'] = Table1_df['passengers'] - Table1_df['passengers'].shift(12)
+# Show the first 15 rows to illustrate the transformation
+Table1_df[['passengers','seasonal_diff']].head(15)</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#ARIMA model summary for seasonally adjusted AirPassengers data
+#Fit a simple ARIMA model to the seasonally differenced data
+from statsmodels.tsa.arima.model import ARIMA
+# Drop missing values from seasonal differencing
+seasonal_diff_data = Table1_df['seasonal_diff'].dropna()
+# Fit ARIMA(1,0,0) as a simple example
+model = ARIMA(seasonal_diff_data, order=(1,0,0))
+model_fit = model.fit()
+model_fit.summary()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Show ARIMA model summary as text
+# Show ARIMA model summary as a string for Excel users
+summary_text = model_fit.summary().as_text()
+summary_text</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Plot actual vs fitted values for ARIMA model
+#Visualize actual vs fitted values for ARIMA model
+plt.rcParams['font.family'] = graph_font
+plt.figure(figsize=(10,4))
+plt.plot(seasonal_diff_data.index, seasonal_diff_data, label='Actual', color='tab:blue')
+plt.plot(seasonal_diff_data.index, model_fit.fittedvalues, label='Fitted', color='tab:orange', linestyle='--')
+plt.title('Actual vs Fitted Values (Seasonally Differenced Data)')
+plt.xlabel('Month')
+plt.ylabel('Seasonally Differenced Passengers')
+plt.legend()
+plt.tight_layout()
+plt.show()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Plot actual and ARIMA-forecasted passenger numbers on original scale
+# Forecast next 12 months using ARIMA model on seasonally differenced data
+n_forecast = 12
+forecast_diff = model_fit.forecast(steps=n_forecast)
+# Reverse seasonal differencing to get forecast on original scale
+last_12_actual = Table1_df['passengers'][-12:].values
+forecast_original = last_12_actual + forecast_diff.values
+# Prepare data for plotting
+forecast_index = pd.date_range(start=Table1_df.index[-1] + pd.DateOffset(months=1), periods=n_forecast, freq='MS')
+actual_plot = Table1_df['passengers']
+forecast_plot = pd.Series(forecast_original, index=forecast_index)
+# Plot actual and forecasted values
+plt.rcParams['font.family'] = graph_font
+plt.figure(figsize=(10,4))
+plt.plot(actual_plot.index, actual_plot.values, label='Actual', color='tab:blue')
+plt.plot(forecast_plot.index, forecast_plot.values, label='Forecast (ARIMA)', color='tab:green', linestyle='--')
+plt.title('Actual vs Forecasted Air Passengers (Original Scale)')
+plt.xlabel('Month')
+plt.ylabel('Number of Passengers')
+plt.legend()
+plt.tight_layout()
+plt.show()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Plot actual, ARIMA, and Holt-Winters forecasts together
+# Fit Holt-Winters Exponential Smoothing model with 12-month seasonality
+from statsmodels.tsa.holtwinters import ExponentialSmoothing
+hw_model = ExponentialSmoothing(Table1_df['passengers'], trend='add', seasonal='add', seasonal_periods=12)
+hw_fit = hw_model.fit()
+hw_forecast = hw_fit.forecast(steps=12)
+# Plot actual, ARIMA, and Holt-Winters forecasts together
+plt.rcParams['font.family'] = graph_font
+plt.figure(figsize=(10,4))
+plt.plot(actual_plot.index, actual_plot.values, label='Actual', color='tab:blue')
+plt.plot(forecast_plot.index, forecast_plot.values, label='Forecast (ARIMA)', color='tab:green', linestyle='--')
+plt.plot(hw_forecast.index, hw_forecast.values, label='Forecast (Holt-Winters)', color='tab:orange', linestyle=':')
+plt.title('Actual vs Forecasted Air Passengers: ARIMA vs Holt-Winters')
+plt.xlabel('Month')
+plt.ylabel('Number of Passengers')
+plt.legend()
+plt.tight_layout()
+plt.show()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Forecast accuracy metrics for ARIMA and Holt-Winters
+#Calculate RMSE, MAE, and MAPE for ARIMA and Holt-Winters forecasts
+from sklearn.metrics import mean_squared_error, mean_absolute_error
+def mean_absolute_percentage_error(y_true, y_pred):
+    return np.mean(np.abs((y_true - y_pred) / y_true))
+# Get the last 12 actual values for comparison
+actual_last12 = Table1_df['passengers'][-12:].values
+arima_forecast = forecast_plot.values
+hw_forecast_vals = hw_forecast.values
+# Calculate metrics for ARIMA
+arima_rmse = np.sqrt(mean_squared_error(actual_last12, arima_forecast))
+arima_mae = mean_absolute_error(actual_last12, arima_forecast)
+arima_mape = mean_absolute_percentage_error(actual_last12, arima_forecast)
+# Calculate metrics for Holt-Winters
+hw_rmse = np.sqrt(mean_squared_error(actual_last12, hw_forecast_vals))
+hw_mae = mean_absolute_error(actual_last12, hw_forecast_vals)
+hw_mape = mean_absolute_percentage_error(actual_last12, hw_forecast_vals)
+# Summarize results in a DataFrame
+metrics_df = pd.DataFrame({
+    'RMSE': [arima_rmse, hw_rmse],
+    'MAE': [arima_mae, hw_mae],
+    'MAPE': [arima_mape, hw_mape]
+}, index=['ARIMA', 'Holt-Winters'])
+metrics_df</code>
+    </pythonScript>
+  </pythonScripts>
+</python>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>#Passengers</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="160">
   <si>
     <t>1949-01</t>
   </si>
@@ -458,13 +896,61 @@
   </si>
   <si>
     <t>1960-12</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>passengers</t>
+  </si>
+  <si>
+    <t>Analysis Sheet</t>
+  </si>
+  <si>
+    <t>This sheet will include all the Python formulas generated by Copilot.</t>
+  </si>
+  <si>
+    <t>Load data from AirPassengers, Table1</t>
+  </si>
+  <si>
+    <t>Preview</t>
+  </si>
+  <si>
+    <t>Visualize the time series of monthly air passengers</t>
+  </si>
+  <si>
+    <t>Decompose the time series into trend, seasonality, and residuals</t>
+  </si>
+  <si>
+    <t>ADF stationarity test results for AirPassengers data</t>
+  </si>
+  <si>
+    <t>Seasonal differencing applied to AirPassengers data</t>
+  </si>
+  <si>
+    <t>ARIMA model summary for seasonally adjusted AirPassengers data</t>
+  </si>
+  <si>
+    <t>Show ARIMA model summary as text</t>
+  </si>
+  <si>
+    <t>Plot actual vs fitted values for ARIMA model</t>
+  </si>
+  <si>
+    <t>Plot actual and ARIMA-forecasted passenger numbers on original scale</t>
+  </si>
+  <si>
+    <t>Plot actual, ARIMA, and Holt-Winters forecasts together</t>
+  </si>
+  <si>
+    <t>Forecast accuracy metrics for ARIMA and Holt-Winters</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -595,6 +1081,30 @@
     <font>
       <sz val="14"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF156082"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF156082"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -941,8 +1451,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1001,12 +1514,893 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>474198</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" title="Visualize the time series of monthly air passengers">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{578B1EC9-0E2F-F08E-34A6-737CD3CDCB06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Analysis1!A24"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5662613"/>
+          <a:ext cx="9275298" cy="3657600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>601594</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" title="Decompose the time series into trend, seasonality, and residuals">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{694A0811-3C85-A07C-0E69-6C1E68B42FC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Analysis1!A44"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10234613"/>
+          <a:ext cx="4602094" cy="3657600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>162118</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" title="Plot actual vs fitted values for ARIMA model">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55DCE054-D8B5-E5F6-9C15-96F9775F666F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Analysis1!A102"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="23493413"/>
+          <a:ext cx="7367588" cy="2905318"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>107135</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" title="Plot actual and ARIMA-forecasted passenger numbers on original scale">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAB9F5A6-DB9B-36D2-76BD-872D0F0F8A57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Analysis1!A122"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="28065413"/>
+          <a:ext cx="6648450" cy="2621735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>176213</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>78964</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" title="Plot actual, ARIMA, and Holt-Winters forecasts together">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A792A4D-B391-7FD0-86B2-B3BDA1F4271E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Analysis1!A142"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="32637413"/>
+          <a:ext cx="6577013" cy="2593564"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="6">
+  <a r="12" c="3">
+    <v t="s"/>
+    <v t="s">month</v>
+    <v t="s">passengers</v>
+    <v>0</v>
+    <v t="s">1949-01</v>
+    <v>112</v>
+    <v>1</v>
+    <v t="s">1949-02</v>
+    <v>118</v>
+    <v>2</v>
+    <v t="s">1949-03</v>
+    <v>132</v>
+    <v>3</v>
+    <v t="s">1949-04</v>
+    <v>129</v>
+    <v>4</v>
+    <v t="s">1949-05</v>
+    <v>121</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v>139</v>
+    <v t="s">1960-08</v>
+    <v>606</v>
+    <v>140</v>
+    <v t="s">1960-09</v>
+    <v>508</v>
+    <v>141</v>
+    <v t="s">1960-10</v>
+    <v>461</v>
+    <v>142</v>
+    <v t="s">1960-11</v>
+    <v>390</v>
+    <v>143</v>
+    <v t="s">1960-12</v>
+    <v>432</v>
+  </a>
+  <a r="2">
+    <v>989</v>
+    <v>390</v>
+  </a>
+  <a r="2">
+    <v>994</v>
+    <v>790</v>
+  </a>
+  <a r="2" c="3">
+    <v t="s"/>
+    <v t="s">ADF Statistic</v>
+    <v t="s">p-value</v>
+    <v>0</v>
+    <v>0.81536887920606549</v>
+    <v>0.99188024343764125</v>
+  </a>
+  <a r="13" c="3">
+    <v t="s"/>
+    <v t="s">passengers</v>
+    <v t="s">seasonal_diff</v>
+    <v t="s">month</v>
+    <v t="s"/>
+    <v t="s"/>
+    <v t="r">14</v>
+    <v>112</v>
+    <v t="r">15</v>
+    <v t="r">16</v>
+    <v>118</v>
+    <v t="r">15</v>
+    <v t="r">17</v>
+    <v>132</v>
+    <v t="r">15</v>
+    <v t="r">18</v>
+    <v>129</v>
+    <v t="r">15</v>
+    <v t="r">19</v>
+    <v>121</v>
+    <v t="r">15</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="r">20</v>
+    <v>104</v>
+    <v t="r">15</v>
+    <v t="r">21</v>
+    <v>118</v>
+    <v t="r">15</v>
+    <v t="r">22</v>
+    <v>115</v>
+    <v>3</v>
+    <v t="r">23</v>
+    <v>126</v>
+    <v>8</v>
+    <v t="r">24</v>
+    <v>141</v>
+    <v>9</v>
+  </a>
+  <a r="3" c="4">
+    <v t="s"/>
+    <v t="s">RMSE</v>
+    <v t="s">MAE</v>
+    <v t="s">MAPE</v>
+    <v t="s">ARIMA</v>
+    <v>30.0260109431091</v>
+    <v>30.012851631092811</v>
+    <v>6.4342602666278045E-2</v>
+    <v t="s">Holt-Winters</v>
+    <v>33.561606134045995</v>
+    <v>32.932809306476116</v>
+    <v>7.173953582416108E-2</v>
+  </a>
+</arrayData>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="42">
+  <rv s="0">
+    <v>0</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>1</v>
+    <v>0</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">       month  passengers
+0    1949-01         112
+1    1949-02         118
+2    1949-03         132
+3    1949-04         129
+4    1949-05         121
+..       ...         ...
+139  1960-08         606
+140  1960-09         508
+141  1960-10         461
+14...</v>
+    <v>1</v>
+    <v>2</v>
+  </rv>
+  <rv s="3">
+    <v>0</v>
+    <v>9</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+  </rv>
+  <rv s="4">
+    <v>Image</v>
+    <v>3</v>
+    <v>3</v>
+    <v>4</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=989x390 at 0x7F261782FB30&gt;</v>
+    <v>5</v>
+    <v>2</v>
+  </rv>
+  <rv s="3">
+    <v>1</v>
+    <v>9</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
+  </rv>
+  <rv s="4">
+    <v>Image</v>
+    <v>3</v>
+    <v>7</v>
+    <v>8</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=994x790 at 0x7F26176E9B80&gt;</v>
+    <v>9</v>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <v>3</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>5</v>
+    <v>11</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">   ADF Statistic  p-value
+0       0.815369  0.99188</v>
+    <v>12</v>
+    <v>2</v>
+  </rv>
+  <rv s="5">
+    <fb>17899</fb>
+    <v>8</v>
+  </rv>
+  <rv s="5">
+    <fb>0</fb>
+    <v>9</v>
+  </rv>
+  <rv s="5">
+    <fb>17930</fb>
+    <v>8</v>
+  </rv>
+  <rv s="5">
+    <fb>17958</fb>
+    <v>8</v>
+  </rv>
+  <rv s="5">
+    <fb>17989</fb>
+    <v>8</v>
+  </rv>
+  <rv s="5">
+    <fb>18019</fb>
+    <v>8</v>
+  </rv>
+  <rv s="5">
+    <fb>18203</fb>
+    <v>8</v>
+  </rv>
+  <rv s="5">
+    <fb>18233</fb>
+    <v>8</v>
+  </rv>
+  <rv s="5">
+    <fb>18264</fb>
+    <v>8</v>
+  </rv>
+  <rv s="5">
+    <fb>18295</fb>
+    <v>8</v>
+  </rv>
+  <rv s="5">
+    <fb>18323</fb>
+    <v>8</v>
+  </rv>
+  <rv s="0">
+    <v>4</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>7</v>
+    <v>25</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">            passengers  seasonal_diff
+month                                
+1949-01-01         112            NaN
+1949-02-01         118            NaN
+1949-03-01         132            NaN
+1949-04-01         129            NaN
+1949-05-01         121  ...</v>
+    <v>26</v>
+    <v>2</v>
+  </rv>
+  <rv s="6">
+    <v>&lt;class 'statsmodels.iolib.summary.Summary'&gt;</v>
+    <v>Summary</v>
+    <v xml:space="preserve">                               SARIMAX Results                                
+==============================================================================
+Dep. Variable:          seasonal_diff   No. Observations:                  132
+Model:         ...</v>
+    <v>2</v>
+  </rv>
+  <rv s="7">
+    <fb t="s" xml:space="preserve">                               SARIMAX Results                                
+==============================================================================
+Dep. Variable:          seasonal_diff   No. Observations:                  132
+Model:                 ARIMA(1, 0, 0)   Log Likelihood                -510.625
+Date:                Tue, 26 Aug 2025   AIC                           1027.250
+Time:                        22:04:53   BIC                           1035.898
+Sample:                    01-01-1950   HQIC                          1030.764
+                         - 12-01-1960                                         
+Covariance Type:                  opg                                         
+==============================================================================
+                 coef    std err          z      P&gt;|z|      [0.025      0.975]
+------------------------------------------------------------------------------
+const         31.0166      3.952      7.848      0.000      23.271      38.762
+ar.L1          0.7566      0.062     12.284      0.000       0.636       0.877
+sigma2       133.2748     12.962     10.282      0.000     107.870     158.680
+===================================================================================
+Ljung-Box (L1) (Q):                   3.86   Jarque-Bera (JB):                18.87
+Prob(Q):                              0.05   Prob(JB):                         0.00
+Heteroskedasticity (H):               2.27   Skew:                             0.29
+Prob(H) (two-sided):                  0.01   Kurtosis:                         4.76
+===================================================================================
+Warnings:
+[1] Covariance matrix calculated using the outer product of gradients (complex-step).</fb>
+    <v>&lt;class 'str'&gt;</v>
+    <v>str</v>
+    <v xml:space="preserve">                               SARIMAX Results                                
+==============================================================================
+Dep. Variable:          seasonal_diff   No. Observations:                  132
+Model:         ...</v>
+    <v xml:space="preserve">                               SARIMAX Results                                
+==============================================================================
+Dep. Variable:          seasonal_diff   No. Observations:                  132
+Model:                 ARIMA(1, 0, 0)   Log Likelihood                -510.625
+Date:                Tue, 26 Aug 2025   AIC                           1027.250
+Time:                        22:04:53   BIC                           1035.898
+Sample:                    01-01-1950   HQIC                          1030.764
+                         - 12-01-1960                                         
+Covariance Type:                  opg                                         
+==============================================================================
+                 coef    std err          z      P&gt;|z|      [0.025      0.975]
+------------------------------------------------------------------------------
+const         31.0166      3.952      7.848      0.000      23.271      38.762
+ar.L1          0.7566      0.062     12.284      0.000       0.636       0.877
+sigma2       133.2748     12.962     10.282      0.000     107.870     158.680
+===================================================================================
+Ljung-Box (L1) (Q):                   3.86   Jarque-Bera (JB):                18.87
+Prob(Q):                              0.05   Prob(JB):                         0.00
+Heteroskedasticity (H):               2.27   Skew:                             0.29
+Prob(H) (two-sided):                  0.01   Kurtosis:                         4.76
+===================================================================================
+Warnings:
+[1] Covariance matrix calculated using the outer product of gradients (complex-step).</v>
+    <v>2</v>
+  </rv>
+  <rv s="3">
+    <v>2</v>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <v>Image</v>
+    <v>3</v>
+    <v>30</v>
+    <v>4</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=989x390 at 0x7F26174FBEF0&gt;</v>
+    <v>31</v>
+    <v>2</v>
+  </rv>
+  <rv s="3">
+    <v>3</v>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <v>Image</v>
+    <v>3</v>
+    <v>33</v>
+    <v>4</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=989x390 at 0x7F26174A3350&gt;</v>
+    <v>34</v>
+    <v>2</v>
+  </rv>
+  <rv s="3">
+    <v>4</v>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <v>Image</v>
+    <v>3</v>
+    <v>36</v>
+    <v>4</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=989x390 at 0x7F2617373680&gt;</v>
+    <v>37</v>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <v>5</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>11</v>
+    <v>39</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">                   RMSE        MAE      MAPE
+ARIMA         30.026011  30.012852  0.064343
+Holt-Winters  33.561606  32.932809  0.071740</v>
+    <v>40</v>
+    <v>2</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="8">
+  <s t="_array">
+    <k n="array" t="a"/>
+  </s>
+  <s t="_entity">
+    <k n="_DisplayString" t="s"/>
+    <k n="_ViewInfo" t="spb"/>
+    <k n="arrayPreview" t="r"/>
+  </s>
+  <s t="_python">
+    <k n="Python_type" t="s"/>
+    <k n="Python_typeName" t="s"/>
+    <k n="Python_str" t="s"/>
+    <k n="preview" t="r"/>
+    <k n="_Provider" t="spb"/>
+  </s>
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+  <s t="_entity">
+    <k n="_DisplayString" t="s"/>
+    <k n="_Format" t="spb"/>
+    <k n="image" t="r"/>
+    <k n="size" t="r"/>
+  </s>
+  <s t="_formattednumber">
+    <k n="_Format" t="spb"/>
+  </s>
+  <s t="_python">
+    <k n="Python_type" t="s"/>
+    <k n="Python_typeName" t="s"/>
+    <k n="Python_str" t="s"/>
+    <k n="_Provider" t="spb"/>
+  </s>
+  <s t="_python">
+    <k n="Python_type" t="s"/>
+    <k n="Python_typeName" t="s"/>
+    <k n="Python_str" t="s"/>
+    <k n="basicValue" t="s"/>
+    <k n="_Provider" t="spb"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbData count="12">
+    <spb s="0">
+      <v>144</v>
+      <v>2</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>https://www.anaconda.com/excel</v>
+      <v>https://res.cdn.office.net/officepysvc/prod-preview/anacondalogo.png</v>
+      <v>Python provided by Anaconda</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+    </spb>
+    <spb s="0">
+      <v>1</v>
+      <v>2</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>4</v>
+    </spb>
+    <spb s="0">
+      <v>15</v>
+      <v>2</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>6</v>
+    </spb>
+    <spb s="4">
+      <v>2</v>
+    </spb>
+    <spb s="4">
+      <v>3</v>
+    </spb>
+    <spb s="0">
+      <v>2</v>
+      <v>3</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>10</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="drw" t="i"/>
+    <k n="dcol" t="i"/>
+    <k n="name" t="s"/>
+    <k n="array" t="s"/>
+    <k n="headers" t="b"/>
+  </s>
+  <s>
+    <k n="ArrayCardInfo" t="spb"/>
+  </s>
+  <s>
+    <k n="link" t="s"/>
+    <k n="logo" t="s"/>
+    <k n="name" t="s"/>
+  </s>
+  <s>
+    <k n="image" t="i"/>
+  </s>
+  <s>
+    <k n="_Self" t="i"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="2">
+    <x:dxf>
+      <x:numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="IsHeroField" t="b"/>
+    <rPr n="NumberFormat" t="s"/>
+  </richProperties>
+  <richStyles>
+    <rSty>
+      <rpv i="0">1</rpv>
+    </rSty>
+    <rSty dxfid="0"/>
+    <rSty dxfid="1">
+      <rpv i="1">0;-0;"nan"</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
+  <rel r:id="rId4"/>
+  <rel r:id="rId5"/>
+</richValueRels>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D1AFE39D-2ADF-4F78-AE6B-6793498D2111}" name="Table1" displayName="Table1" ref="A1:B145" totalsRowShown="0">
   <autoFilter ref="A1:B145" xr:uid="{D1AFE39D-2ADF-4F78-AE6B-6793498D2111}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B26CA2B4-2229-44BF-9226-E3DA2EFFF655}" name="Month"/>
-    <tableColumn id="2" xr3:uid="{A69C5683-D02F-4034-AEED-8E6EFEC0395D}" name="#Passengers"/>
+    <tableColumn id="1" xr3:uid="{B26CA2B4-2229-44BF-9226-E3DA2EFFF655}" name="month"/>
+    <tableColumn id="2" xr3:uid="{A69C5683-D02F-4034-AEED-8E6EFEC0395D}" name="passengers"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1332,7 +2726,7 @@
   <dimension ref="A1:B145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B145"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1342,15 +2736,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>112</v>
@@ -1358,7 +2752,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>118</v>
@@ -1366,7 +2760,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>132</v>
@@ -1374,7 +2768,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>129</v>
@@ -1382,7 +2776,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>121</v>
@@ -1390,7 +2784,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>135</v>
@@ -1398,7 +2792,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>148</v>
@@ -1406,7 +2800,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>148</v>
@@ -1414,7 +2808,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>136</v>
@@ -1422,7 +2816,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>119</v>
@@ -1430,7 +2824,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>104</v>
@@ -1438,7 +2832,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>118</v>
@@ -1446,7 +2840,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>115</v>
@@ -1454,7 +2848,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>126</v>
@@ -1462,7 +2856,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>141</v>
@@ -1470,7 +2864,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>135</v>
@@ -1478,7 +2872,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>125</v>
@@ -1486,7 +2880,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>149</v>
@@ -1494,7 +2888,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>170</v>
@@ -1502,7 +2896,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>170</v>
@@ -1510,7 +2904,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>158</v>
@@ -1518,7 +2912,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>133</v>
@@ -1526,7 +2920,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>114</v>
@@ -1534,7 +2928,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>140</v>
@@ -1542,7 +2936,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>145</v>
@@ -1550,7 +2944,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>150</v>
@@ -1558,7 +2952,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>178</v>
@@ -1566,7 +2960,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>163</v>
@@ -1574,7 +2968,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>172</v>
@@ -1582,7 +2976,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>178</v>
@@ -1590,7 +2984,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>199</v>
@@ -1598,7 +2992,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>199</v>
@@ -1606,7 +3000,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>184</v>
@@ -1614,7 +3008,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>162</v>
@@ -1622,7 +3016,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>146</v>
@@ -1630,7 +3024,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>166</v>
@@ -1638,7 +3032,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>171</v>
@@ -1646,7 +3040,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>180</v>
@@ -1654,7 +3048,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>193</v>
@@ -1662,7 +3056,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>181</v>
@@ -1670,7 +3064,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>183</v>
@@ -1678,7 +3072,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>218</v>
@@ -1686,7 +3080,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>230</v>
@@ -1694,7 +3088,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>242</v>
@@ -1702,7 +3096,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>209</v>
@@ -1710,7 +3104,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>191</v>
@@ -1718,7 +3112,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>172</v>
@@ -1726,7 +3120,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>194</v>
@@ -1734,7 +3128,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>196</v>
@@ -1742,7 +3136,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>196</v>
@@ -1750,7 +3144,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>236</v>
@@ -1758,7 +3152,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>235</v>
@@ -1766,7 +3160,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>229</v>
@@ -1774,7 +3168,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>243</v>
@@ -1782,7 +3176,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>264</v>
@@ -1790,7 +3184,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>272</v>
@@ -1798,7 +3192,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>237</v>
@@ -1806,7 +3200,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>211</v>
@@ -1814,7 +3208,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>180</v>
@@ -1822,7 +3216,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>201</v>
@@ -1830,7 +3224,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>204</v>
@@ -1838,7 +3232,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>188</v>
@@ -1846,7 +3240,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B64">
         <v>235</v>
@@ -1854,7 +3248,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B65">
         <v>227</v>
@@ -1862,7 +3256,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B66">
         <v>234</v>
@@ -1870,7 +3264,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B67">
         <v>264</v>
@@ -1878,7 +3272,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B68">
         <v>302</v>
@@ -1886,7 +3280,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B69">
         <v>293</v>
@@ -1894,7 +3288,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B70">
         <v>259</v>
@@ -1902,7 +3296,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B71">
         <v>229</v>
@@ -1910,7 +3304,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B72">
         <v>203</v>
@@ -1918,7 +3312,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B73">
         <v>229</v>
@@ -1926,7 +3320,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B74">
         <v>242</v>
@@ -1934,7 +3328,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B75">
         <v>233</v>
@@ -1942,7 +3336,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B76">
         <v>267</v>
@@ -1950,7 +3344,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B77">
         <v>269</v>
@@ -1958,7 +3352,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B78">
         <v>270</v>
@@ -1966,7 +3360,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B79">
         <v>315</v>
@@ -1974,7 +3368,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B80">
         <v>364</v>
@@ -1982,7 +3376,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B81">
         <v>347</v>
@@ -1990,7 +3384,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B82">
         <v>312</v>
@@ -1998,7 +3392,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B83">
         <v>274</v>
@@ -2006,7 +3400,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B84">
         <v>237</v>
@@ -2014,7 +3408,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B85">
         <v>278</v>
@@ -2022,7 +3416,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B86">
         <v>284</v>
@@ -2030,7 +3424,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B87">
         <v>277</v>
@@ -2038,7 +3432,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B88">
         <v>317</v>
@@ -2046,7 +3440,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B89">
         <v>313</v>
@@ -2054,7 +3448,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B90">
         <v>318</v>
@@ -2062,7 +3456,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B91">
         <v>374</v>
@@ -2070,7 +3464,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B92">
         <v>413</v>
@@ -2078,7 +3472,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B93">
         <v>405</v>
@@ -2086,7 +3480,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B94">
         <v>355</v>
@@ -2094,7 +3488,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B95">
         <v>306</v>
@@ -2102,7 +3496,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B96">
         <v>271</v>
@@ -2110,7 +3504,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B97">
         <v>306</v>
@@ -2118,7 +3512,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B98">
         <v>315</v>
@@ -2126,7 +3520,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B99">
         <v>301</v>
@@ -2134,7 +3528,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B100">
         <v>356</v>
@@ -2142,7 +3536,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B101">
         <v>348</v>
@@ -2150,7 +3544,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B102">
         <v>355</v>
@@ -2158,7 +3552,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B103">
         <v>422</v>
@@ -2166,7 +3560,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B104">
         <v>465</v>
@@ -2174,7 +3568,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B105">
         <v>467</v>
@@ -2182,7 +3576,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B106">
         <v>404</v>
@@ -2190,7 +3584,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B107">
         <v>347</v>
@@ -2198,7 +3592,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B108">
         <v>305</v>
@@ -2206,7 +3600,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B109">
         <v>336</v>
@@ -2214,7 +3608,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B110">
         <v>340</v>
@@ -2222,7 +3616,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B111">
         <v>318</v>
@@ -2230,7 +3624,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B112">
         <v>362</v>
@@ -2238,7 +3632,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B113">
         <v>348</v>
@@ -2246,7 +3640,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B114">
         <v>363</v>
@@ -2254,7 +3648,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B115">
         <v>435</v>
@@ -2262,7 +3656,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B116">
         <v>491</v>
@@ -2270,7 +3664,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B117">
         <v>505</v>
@@ -2278,7 +3672,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B118">
         <v>404</v>
@@ -2286,7 +3680,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B119">
         <v>359</v>
@@ -2294,7 +3688,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B120">
         <v>310</v>
@@ -2302,7 +3696,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B121">
         <v>337</v>
@@ -2310,7 +3704,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B122">
         <v>360</v>
@@ -2318,7 +3712,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B123">
         <v>342</v>
@@ -2326,7 +3720,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B124">
         <v>406</v>
@@ -2334,7 +3728,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B125">
         <v>396</v>
@@ -2342,7 +3736,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B126">
         <v>420</v>
@@ -2350,7 +3744,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B127">
         <v>472</v>
@@ -2358,7 +3752,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B128">
         <v>548</v>
@@ -2366,7 +3760,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B129">
         <v>559</v>
@@ -2374,7 +3768,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B130">
         <v>463</v>
@@ -2382,7 +3776,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B131">
         <v>407</v>
@@ -2390,7 +3784,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B132">
         <v>362</v>
@@ -2398,7 +3792,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B133">
         <v>405</v>
@@ -2406,7 +3800,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B134">
         <v>417</v>
@@ -2414,7 +3808,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B135">
         <v>391</v>
@@ -2422,7 +3816,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B136">
         <v>419</v>
@@ -2430,7 +3824,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B137">
         <v>461</v>
@@ -2438,7 +3832,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B138">
         <v>472</v>
@@ -2446,7 +3840,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B139">
         <v>535</v>
@@ -2454,7 +3848,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B140">
         <v>622</v>
@@ -2462,7 +3856,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B141">
         <v>606</v>
@@ -2470,7 +3864,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B142">
         <v>508</v>
@@ -2478,7 +3872,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B143">
         <v>461</v>
@@ -2486,7 +3880,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B144">
         <v>390</v>
@@ -2494,7 +3888,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B145">
         <v>432</v>
@@ -2506,4 +3900,552 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57C26A10-B2B4-4CD2-AF57-82F0FB6AC6C5}">
+  <dimension ref="A1:D167"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="31.9" x14ac:dyDescent="1">
+      <c r="A1" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="e" cm="1" vm="1">
+        <f t="array" ref="A6">_xlfn._xlws.PY(0,1,Table1[[#Headers],[#Data]])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="str" cm="1">
+        <f t="array" ref="A9:C20">IFERROR(_FV(A6,"arrayPreview"),_xlfn._DF_Python_str(A6))</f>
+        <v/>
+      </c>
+      <c r="B9" t="str">
+        <v>month</v>
+      </c>
+      <c r="C9" t="str">
+        <v>passengers</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10" t="str">
+        <v>1949-01</v>
+      </c>
+      <c r="C10">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="str">
+        <v>1949-02</v>
+      </c>
+      <c r="C11">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="str">
+        <v>1949-03</v>
+      </c>
+      <c r="C12">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="str">
+        <v>1949-04</v>
+      </c>
+      <c r="C13">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="str">
+        <v>1949-05</v>
+      </c>
+      <c r="C14">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="str">
+        <v>...</v>
+      </c>
+      <c r="B15" t="str">
+        <v>...</v>
+      </c>
+      <c r="C15" t="str">
+        <v>...</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>139</v>
+      </c>
+      <c r="B16" t="str">
+        <v>1960-08</v>
+      </c>
+      <c r="C16">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>140</v>
+      </c>
+      <c r="B17" t="str">
+        <v>1960-09</v>
+      </c>
+      <c r="C17">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>141</v>
+      </c>
+      <c r="B18" t="str">
+        <v>1960-10</v>
+      </c>
+      <c r="C18">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>142</v>
+      </c>
+      <c r="B19" t="str">
+        <v>1960-11</v>
+      </c>
+      <c r="C19">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>143</v>
+      </c>
+      <c r="B20" t="str">
+        <v>1960-12</v>
+      </c>
+      <c r="C20">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="e" cm="1" vm="2">
+        <f t="array" ref="A24">_xlfn._xlws.PY(1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="e" cm="1" vm="3">
+        <f t="array" ref="A44">_xlfn._xlws.PY(2,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" t="e" cm="1" vm="4">
+        <f t="array" ref="A64">_xlfn._xlws.PY(3,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" t="str" cm="1">
+        <f t="array" ref="A67:C68">IFERROR(_FV(A64,"arrayPreview"),_xlfn._DF_Python_str(A64))</f>
+        <v/>
+      </c>
+      <c r="B67" t="str">
+        <v>ADF Statistic</v>
+      </c>
+      <c r="C67" t="str">
+        <v>p-value</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>0.81536887920606549</v>
+      </c>
+      <c r="C68">
+        <v>0.99188024343764125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" t="e" cm="1" vm="5">
+        <f t="array" ref="A72">_xlfn._xlws.PY(4,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" t="str" cm="1">
+        <f t="array" ref="A75:C87">IFERROR(_FV(A72,"arrayPreview"),_xlfn._DF_Python_str(A72))</f>
+        <v/>
+      </c>
+      <c r="B75" t="str">
+        <v>passengers</v>
+      </c>
+      <c r="C75" t="str">
+        <v>seasonal_diff</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" t="str">
+        <v>month</v>
+      </c>
+      <c r="B76" t="str">
+        <v/>
+      </c>
+      <c r="C76" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" vm="6">
+        <v>17899</v>
+      </c>
+      <c r="B77">
+        <v>112</v>
+      </c>
+      <c r="C77" vm="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" vm="8">
+        <v>17930</v>
+      </c>
+      <c r="B78">
+        <v>118</v>
+      </c>
+      <c r="C78" vm="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" vm="9">
+        <v>17958</v>
+      </c>
+      <c r="B79">
+        <v>132</v>
+      </c>
+      <c r="C79" vm="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" vm="10">
+        <v>17989</v>
+      </c>
+      <c r="B80">
+        <v>129</v>
+      </c>
+      <c r="C80" vm="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" vm="11">
+        <v>18019</v>
+      </c>
+      <c r="B81">
+        <v>121</v>
+      </c>
+      <c r="C81" vm="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" t="str">
+        <v>...</v>
+      </c>
+      <c r="B82" t="str">
+        <v>...</v>
+      </c>
+      <c r="C82" t="str">
+        <v>...</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" vm="12">
+        <v>18203</v>
+      </c>
+      <c r="B83">
+        <v>104</v>
+      </c>
+      <c r="C83" vm="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" vm="13">
+        <v>18233</v>
+      </c>
+      <c r="B84">
+        <v>118</v>
+      </c>
+      <c r="C84" vm="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" vm="14">
+        <v>18264</v>
+      </c>
+      <c r="B85">
+        <v>115</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" vm="15">
+        <v>18295</v>
+      </c>
+      <c r="B86">
+        <v>126</v>
+      </c>
+      <c r="C86">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" vm="16">
+        <v>18323</v>
+      </c>
+      <c r="B87">
+        <v>141</v>
+      </c>
+      <c r="C87">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" t="e" cm="1" vm="17">
+        <f t="array" ref="A91">_xlfn._xlws.PY(5,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" t="str" cm="1">
+        <f t="array" ref="A94">IFERROR(_FV(A91,"arrayPreview"),_xlfn._DF_Python_str(A91))</f>
+        <v xml:space="preserve">                               SARIMAX Results                                
+==============================================================================
+Dep. Variable:          seasonal_diff   No. Observations:                  132
+Model:         ...</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" t="str" cm="1" vm="18">
+        <f t="array" ref="A98">_xlfn._xlws.PY(6,1)</f>
+        <v xml:space="preserve">                               SARIMAX Results                                
+==============================================================================
+Dep. Variable:          seasonal_diff   No. Observations:                  132
+Model:                 ARIMA(1, 0, 0)   Log Likelihood                -510.625
+Date:                Tue, 26 Aug 2025   AIC                           1027.250
+Time:                        22:04:53   BIC                           1035.898
+Sample:                    01-01-1950   HQIC                          1030.764
+                         - 12-01-1960                                         
+Covariance Type:                  opg                                         
+==============================================================================
+                 coef    std err          z      P&gt;|z|      [0.025      0.975]
+------------------------------------------------------------------------------
+const         31.0166      3.952      7.848      0.000      23.271      38.762
+ar.L1          0.7566      0.062     12.284      0.000       0.636       0.877
+sigma2       133.2748     12.962     10.282      0.000     107.870     158.680
+===================================================================================
+Ljung-Box (L1) (Q):                   3.86   Jarque-Bera (JB):                18.87
+Prob(Q):                              0.05   Prob(JB):                         0.00
+Heteroskedasticity (H):               2.27   Skew:                             0.29
+Prob(H) (two-sided):                  0.01   Kurtosis:                         4.76
+===================================================================================
+Warnings:
+[1] Covariance matrix calculated using the outer product of gradients (complex-step).</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" t="e" cm="1" vm="19">
+        <f t="array" ref="A102">_xlfn._xlws.PY(7,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" t="e" cm="1" vm="20">
+        <f t="array" ref="A122">_xlfn._xlws.PY(8,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142" t="e" cm="1" vm="21">
+        <f t="array" ref="A142">_xlfn._xlws.PY(9,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162" t="e" cm="1" vm="22">
+        <f t="array" ref="A162">_xlfn._xlws.PY(10,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165" t="str" cm="1">
+        <f t="array" ref="A165:D167">IFERROR(_FV(A162,"arrayPreview"),_xlfn._DF_Python_str(A162))</f>
+        <v/>
+      </c>
+      <c r="B165" t="str">
+        <v>RMSE</v>
+      </c>
+      <c r="C165" t="str">
+        <v>MAE</v>
+      </c>
+      <c r="D165" t="str">
+        <v>MAPE</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166" t="str">
+        <v>ARIMA</v>
+      </c>
+      <c r="B166">
+        <v>30.0260109431091</v>
+      </c>
+      <c r="C166">
+        <v>30.012851631092811</v>
+      </c>
+      <c r="D166">
+        <v>6.4342602666278045E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A167" t="str">
+        <v>Holt-Winters</v>
+      </c>
+      <c r="B167">
+        <v>33.561606134045995</v>
+      </c>
+      <c r="C167">
+        <v>32.932809306476116</v>
+      </c>
+      <c r="D167">
+        <v>7.173953582416108E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="isPythonAnalysisSheet" r:id="rId1"/>
+    <customPr name="lastPythonCell" r:id="rId2"/>
+  </customProperties>
+  <drawing r:id="rId3"/>
+</worksheet>
 </file>